--- a/Full.xlsx
+++ b/Full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\OneDrive\Documents\MProg\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shiny\OneDrive\Documents\GitHub\leafy-green\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FAF9BC-0988-458C-9D9E-1C2DD8DA767A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E88C90-8B15-462A-B9A9-55020818A271}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1416,8 +1416,8 @@
   <dimension ref="A1:O1826"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1808" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1816" sqref="S1816"/>
+      <pane ySplit="1" topLeftCell="A607" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L643" sqref="L643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31328,7 +31328,7 @@
         <v>3</v>
       </c>
       <c r="E637">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F637">
         <v>40</v>
@@ -31375,7 +31375,7 @@
         <v>3</v>
       </c>
       <c r="E638">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F638">
         <v>40</v>
@@ -31422,7 +31422,7 @@
         <v>3</v>
       </c>
       <c r="E639">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F639">
         <v>40</v>
@@ -65074,7 +65074,7 @@
         <v>3</v>
       </c>
       <c r="E1355">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F1355">
         <v>8</v>
@@ -66625,7 +66625,7 @@
         <v>3</v>
       </c>
       <c r="E1388">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F1388">
         <v>9</v>
